--- a/Pith2Bark/dataset/damage.xlsx
+++ b/Pith2Bark/dataset/damage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadfarooq/Codebase/thesis-experiment/Pith2Bark/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48821FE-FCBA-BB48-84BA-811C572B929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B3FB10-DE8D-9742-8E5E-F4DAB15EB8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="156">
   <si>
     <t>1-0d8eabdfed2cb1f0d455e5a2050d78ba39ae6cff_0665c9464c856662322717999ae3d8301ff48907_instant.jpg</t>
   </si>
@@ -185,6 +185,309 @@
   </si>
   <si>
     <t>tracy</t>
+  </si>
+  <si>
+    <t>0a9ed354-c013-4963-9124-b5f90fd42eb7.jpg</t>
+  </si>
+  <si>
+    <t>0ab34cbd-fbbb-4ae9-9399-9e4e7df9c675.jpg</t>
+  </si>
+  <si>
+    <t>0ab35e35-0347-4e71-957b-726ce7986d28.jpg</t>
+  </si>
+  <si>
+    <t>0b5ed0e1-7519-455b-b7a8-8db6e5e79f9e.jpg</t>
+  </si>
+  <si>
+    <t>00b6b6c8-ec6b-4f20-b77a-2dc0c5d22347.jpg</t>
+  </si>
+  <si>
+    <t>0b075cc5-5371-461a-ab45-3c886e64b40c.jpg</t>
+  </si>
+  <si>
+    <t>0ba0be20-feb0-4798-b426-7e5ddfa2a2f3.jpg</t>
+  </si>
+  <si>
+    <t>00bc27e9-b635-448d-9da1-9d461842e044.jpg</t>
+  </si>
+  <si>
+    <t>0bd1db70-cb6e-4252-ae11-532d7e6ad5d4.jpg</t>
+  </si>
+  <si>
+    <t>0bebb40c-63b8-4e38-81f0-d3360aedd952.jpg</t>
+  </si>
+  <si>
+    <t>0c53c08a-6425-44d6-9851-72507bb743da.jpg</t>
+  </si>
+  <si>
+    <t>0cac58fa-65ff-4e89-8730-388fb056a16c.jpg</t>
+  </si>
+  <si>
+    <t>0cc9305a-5db1-4d6d-a603-918a09542602.jpg</t>
+  </si>
+  <si>
+    <t>0cd5a26b-e36c-4889-b9f9-ade261a5e102.jpg</t>
+  </si>
+  <si>
+    <t>0ce89f32-20eb-41bd-babd-4027fee9ae6a.jpg</t>
+  </si>
+  <si>
+    <t>0d42a6dc-a0ef-4deb-a797-78d1a4ed8b55.jpg</t>
+  </si>
+  <si>
+    <t>0da44e1b-8158-40d4-a311-2fc016111d13.jpg</t>
+  </si>
+  <si>
+    <t>0da46961-93dc-492c-b4d8-54d9b7e439fa.jpg</t>
+  </si>
+  <si>
+    <t>0daaa854-08f1-44a5-8288-4481826778ee.jpg</t>
+  </si>
+  <si>
+    <t>0dbd3d07-f5e8-4549-af0c-737785d180f5.jpg</t>
+  </si>
+  <si>
+    <t>0dd5c7f5-399c-4e57-b567-dd20a13e1d85.jpg</t>
+  </si>
+  <si>
+    <t>0e4c7385-c750-4cf6-9bfb-2818544b0d1d.jpg</t>
+  </si>
+  <si>
+    <t>0e4fdea4-6046-4a66-98b2-f4a3320d6de4.jpg</t>
+  </si>
+  <si>
+    <t>0e21e295-26f0-4635-b7aa-e6429954beed.jpg</t>
+  </si>
+  <si>
+    <t>0e66ec66-d6d2-4f7f-8798-5037e4e4e184.jpg</t>
+  </si>
+  <si>
+    <t>0e145300-af32-45e4-b10c-e5f411ef8e6e.jpg</t>
+  </si>
+  <si>
+    <t>0ed6b6c7-fc8e-49a1-b077-7bddd2ee202f.jpg</t>
+  </si>
+  <si>
+    <t>0f16dbcc-6792-4541-84dd-a1d852ccbcab.jpg</t>
+  </si>
+  <si>
+    <t>0f82cbda-4f09-42cb-8a2e-6862a5a8561a.jpg</t>
+  </si>
+  <si>
+    <t>044c6434-b9b0-4402-bf6b-e3ebe075539f.jpg</t>
+  </si>
+  <si>
+    <t>44ed032b-653d-40bb-b641-34aa66d31bb6.jpg</t>
+  </si>
+  <si>
+    <t>45a2deda-edef-482c-b82e-62151af94d2d.jpg</t>
+  </si>
+  <si>
+    <t>45f6bcb3-a87d-4278-aab5-8cee99cb6fc6.jpg</t>
+  </si>
+  <si>
+    <t>46aee2e0-8c1a-4f38-8525-3c61c7a6b6f8.jpg</t>
+  </si>
+  <si>
+    <t>46b460d7-94eb-45d3-baeb-90d350901598.jpg</t>
+  </si>
+  <si>
+    <t>46c88d82-d909-4156-b198-79fd0571a983.jpg</t>
+  </si>
+  <si>
+    <t>47b741ac-cf0c-4dc4-bca3-50aa0e26fdcb.jpg</t>
+  </si>
+  <si>
+    <t>47c85831-0dec-411b-b330-d26900be84d1.jpg</t>
+  </si>
+  <si>
+    <t>48c2f602-472a-4fe7-8860-a93e0618d193.jpg</t>
+  </si>
+  <si>
+    <t>048f7165-79c2-407c-9dea-aa1089d0bb91.jpg</t>
+  </si>
+  <si>
+    <t>48fb4d49-9684-4ee1-a6f5-e60d3f663529.jpg</t>
+  </si>
+  <si>
+    <t>50b5aecf-adad-4b5e-934d-02b4bb591a5c.jpg</t>
+  </si>
+  <si>
+    <t>050f287e-72eb-44b2-84e3-20789e5717bb.jpg</t>
+  </si>
+  <si>
+    <t>51bccdcb-f5cd-4c0f-9272-5e0fe7025f9a.jpg</t>
+  </si>
+  <si>
+    <t>51e8d615-19de-4037-b746-1f00286f2ba2.jpg</t>
+  </si>
+  <si>
+    <t>52b07525-89fa-4532-9518-a88332d4fac2.jpg</t>
+  </si>
+  <si>
+    <t>52d860b9-2545-48a5-83ae-9d883ebdfa1a.jpg</t>
+  </si>
+  <si>
+    <t>52e4f47f-9c04-44cd-8007-f9c6b1045574.jpg</t>
+  </si>
+  <si>
+    <t>53d403ce-f876-4d5a-a71c-879749d10bf8.jpg</t>
+  </si>
+  <si>
+    <t>54bf8554-f0cb-4b2c-8a81-56e7b47288a7.jpg</t>
+  </si>
+  <si>
+    <t>55a25d98-1be0-43e2-af3f-75b6a993ef83.jpg</t>
+  </si>
+  <si>
+    <t>55d304c4-b073-4506-9d3d-66d5e4bd876f.jpg</t>
+  </si>
+  <si>
+    <t>56abe50e-86c7-499f-89f0-aa69ce53b8e8.jpg</t>
+  </si>
+  <si>
+    <t>56aca3d5-0fc5-4c67-8895-2e1531c29b5d.jpg</t>
+  </si>
+  <si>
+    <t>57bb9c51-c5f9-45fa-96e4-c3fd223bc8c9.jpg</t>
+  </si>
+  <si>
+    <t>57deaf6f-e7ac-44d9-94fc-d0af2474e476.jpg</t>
+  </si>
+  <si>
+    <t>cb091763-2b99-4df3-b440-529907728083.jpg</t>
+  </si>
+  <si>
+    <t>ded672c3-1e54-4514-97ea-ef2ca3d4ffe6.jpg</t>
+  </si>
+  <si>
+    <t>df4d2377-2d24-4854-9192-ee52c2d5df18.jpg</t>
+  </si>
+  <si>
+    <t>df7ebfd4-dfb0-4342-9164-c64f74292795.jpg</t>
+  </si>
+  <si>
+    <t>df6440e9-acf9-498a-87fa-b7747e81f09a.jpg</t>
+  </si>
+  <si>
+    <t>dfa15f82-18d4-4389-8527-8f276d0b5805.jpg</t>
+  </si>
+  <si>
+    <t>dfdb4ed7-394a-434f-a877-328f89e41a09.jpg</t>
+  </si>
+  <si>
+    <t>e0e96cf1-f815-42fe-a3b0-e817cf3a3354.jpg</t>
+  </si>
+  <si>
+    <t>e1eab1e6-f4e0-4d4e-be7a-59e7f1b582b5.jpg</t>
+  </si>
+  <si>
+    <t>e02eacbb-0c95-4726-b270-e956d091e478.jpg</t>
+  </si>
+  <si>
+    <t>e3d3cfb6-7fc0-4820-9e55-d1dd3e544916.jpg</t>
+  </si>
+  <si>
+    <t>e5bafab7-0d8f-4b16-a912-9c1f4678abe3.jpg</t>
+  </si>
+  <si>
+    <t>e5d08d2f-e2f6-44d6-8486-8be781d463dc.jpg</t>
+  </si>
+  <si>
+    <t>e7a2d874-f797-48bb-84fd-f697425ccce4.jpg</t>
+  </si>
+  <si>
+    <t>e7de2434-fb9a-45c1-85d0-a3b1490c042d.jpg</t>
+  </si>
+  <si>
+    <t>e8a4da44-8d72-4b4f-ac69-53f8061a8026.jpg</t>
+  </si>
+  <si>
+    <t>e09aa7db-7b06-4eb0-91be-2bf0b1fb14a4.jpg</t>
+  </si>
+  <si>
+    <t>e22a2086-f5b8-421b-b082-2e85cf54c9c1.jpg</t>
+  </si>
+  <si>
+    <t>f5382313-d332-471d-a5d1-629bb8e2e903.jpg</t>
+  </si>
+  <si>
+    <t>f5528295-e1e6-4299-b3b5-daeb3b027059.jpg</t>
+  </si>
+  <si>
+    <t>f5744022-17de-4885-b35c-5f94b9c2a586.jpg</t>
+  </si>
+  <si>
+    <t>fb7c871e-11bd-495e-8c93-ddf2fe51e43a.jpg</t>
+  </si>
+  <si>
+    <t>fb9bf261-8eed-4929-a552-8b8177cadda7.jpg</t>
+  </si>
+  <si>
+    <t>fb97e828-debe-44f3-80a9-3c3c40c62a95.jpg</t>
+  </si>
+  <si>
+    <t>fb516b30-d195-4e11-ae61-e5d1483b50cd.jpg</t>
+  </si>
+  <si>
+    <t>fbf0cc0c-b3c5-49be-8b06-b375856f87d3.jpg</t>
+  </si>
+  <si>
+    <t>fbfb60ab-1245-4f98-ba41-a996d888187e.jpg</t>
+  </si>
+  <si>
+    <t>fbffc1b0-0e17-4489-a600-9fc7eda78518.jpg</t>
+  </si>
+  <si>
+    <t>fc03aa81-9155-43e7-bcdf-0469a3a1a2d0.jpg</t>
+  </si>
+  <si>
+    <t>fc3c0166-ebb7-4fcf-a3e7-12cd32bcc9a0.jpg</t>
+  </si>
+  <si>
+    <t>fc282e27-c1e3-4cdf-9f0d-b2bc19ca4e90.jpg</t>
+  </si>
+  <si>
+    <t>fc559d5f-97ad-4ebd-bd9a-9fa0ff3bfb34.jpg</t>
+  </si>
+  <si>
+    <t>fcce8209-3816-4ee4-8a43-5c75b2b5ecf2.jpg</t>
+  </si>
+  <si>
+    <t>fcda865d-d667-4fab-a526-0103332b4646.jpg</t>
+  </si>
+  <si>
+    <t>fd60d026-3371-47f7-aa3e-36f2477489e4.jpg</t>
+  </si>
+  <si>
+    <t>fd5168d8-7896-43f4-a69c-b545113c901b.jpg</t>
+  </si>
+  <si>
+    <t>fdb104c8-414b-4c2d-88bd-9b4cf667d13c.jpg</t>
+  </si>
+  <si>
+    <t>fe18ea18-ac63-42b3-bdb0-2cf855055699.jpg</t>
+  </si>
+  <si>
+    <t>fe3470eb-04c0-49c2-83bb-a47b18ebb83e.jpg</t>
+  </si>
+  <si>
+    <t>fecf212a-83fd-4aae-8ba8-60a84f937f19.jpg</t>
+  </si>
+  <si>
+    <t>fef5cfb1-5c59-4f3e-8cf2-9c632d201863.jpg</t>
+  </si>
+  <si>
+    <t>ff0e407b-7d23-4037-a2e7-4a977d767e74.jpg</t>
+  </si>
+  <si>
+    <t>ff97ce59-f352-46ef-8137-ee28dc25fe04.jpg</t>
+  </si>
+  <si>
+    <t>ff264f04-f075-4e4b-ab62-ee8b00f8c47e.jpg</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -239,11 +542,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,13 +766,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1031,6 +1338,807 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
